--- a/public/template/template_siswa.xlsx
+++ b/public/template/template_siswa.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB PROJEK\LARAVEL 11\madrasah-app-v2\public\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D819759-2443-492A-BB88-635E3672AA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Informasi" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Informasi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -68,9 +77,6 @@
     <t>Wali Murid</t>
   </si>
   <si>
-    <t>Pendidkan Ayah</t>
-  </si>
-  <si>
     <t>Pendidikan Ibu</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
     <t>Hubungan Siswa Wali</t>
   </si>
   <si>
-    <t>EMI FATIKHA</t>
-  </si>
-  <si>
-    <t>A.Md.T</t>
-  </si>
-  <si>
     <t>Perempuan</t>
   </si>
   <si>
@@ -116,21 +116,6 @@
     <t>Saudara</t>
   </si>
   <si>
-    <t>VIKAR MAULANA ARRISYAD</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>asfadsfs</t>
-  </si>
-  <si>
-    <t>Ayah 1</t>
-  </si>
-  <si>
-    <t>Ibu 1</t>
-  </si>
-  <si>
     <t>Pekerjaan</t>
   </si>
   <si>
@@ -186,76 +171,96 @@
   </si>
   <si>
     <t>Ibu RUmah Tangga</t>
+  </si>
+  <si>
+    <t>Pendidikan Ayah</t>
+  </si>
+  <si>
+    <t>SISWA CONTOH</t>
+  </si>
+  <si>
+    <t>CONTOH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="4">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -265,61 +270,68 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -509,24 +521,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.25"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
+    <col min="1" max="1" width="3.265625" customWidth="1"/>
+    <col min="2" max="2" width="21.46484375" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,344 +588,284 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1234567897</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="J2" s="5">
+        <v>37087</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="6">
-        <v>37087.0</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="6">
-        <v>37087.0</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="8.5"/>
-    <col customWidth="1" min="4" max="4" width="15.38"/>
+    <col min="3" max="3" width="8.46484375" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="F3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="10" t="s">
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="10" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="6">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F10" s="6">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="10" t="s">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F11" s="6">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="D8" s="10" t="s">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="6">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>